--- a/bestPlayers.xlsx
+++ b/bestPlayers.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25018"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Neo Dossier Alexis\Brawlhalla\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Neo Dossier Alexis\Web Projects\BrawlhallaBestCountryPlayersRanksBackend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3691C959-E546-474E-9A57-370F748C243A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F72DE92-803F-4F32-B53E-E0FCE709770E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -276,10 +276,10 @@
     <t>zBlackneight</t>
   </si>
   <si>
-    <t>Shadra - Baguette senpai</t>
-  </si>
-  <si>
     <t>iSwiits / swts</t>
+  </si>
+  <si>
+    <t>Shadra</t>
   </si>
 </sst>
 </file>
@@ -689,14 +689,14 @@
   <dimension ref="A1:C83"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.5703125" customWidth="1"/>
+    <col min="1" max="1" width="17.140625" customWidth="1"/>
     <col min="2" max="2" width="15.42578125" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" customWidth="1"/>
     <col min="4" max="4" width="14.5703125" customWidth="1"/>
     <col min="5" max="5" width="15.140625" customWidth="1"/>
     <col min="6" max="6" width="11" customWidth="1"/>
@@ -964,7 +964,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -1271,7 +1271,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B64" s="2">
         <v>7159263</v>

--- a/bestPlayers.xlsx
+++ b/bestPlayers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Neo Dossier Alexis\Web Projects\BrawlhallaBestCountryPlayersRanksBackend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F72DE92-803F-4F32-B53E-E0FCE709770E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AF04548-AE51-4A49-A6B3-4FF0F4F828FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
   <si>
     <t>Name</t>
   </si>
@@ -183,9 +183,6 @@
     <t>Xefitra</t>
   </si>
   <si>
-    <t>Zapapy</t>
-  </si>
-  <si>
     <t>Zoraner</t>
   </si>
   <si>
@@ -216,9 +213,6 @@
     <t>Mahé</t>
   </si>
   <si>
-    <t>Ecran (Hz)</t>
-  </si>
-  <si>
     <t>Saiyajin</t>
   </si>
   <si>
@@ -280,13 +274,34 @@
   </si>
   <si>
     <t>Shadra</t>
+  </si>
+  <si>
+    <t>Stayn</t>
+  </si>
+  <si>
+    <t>Jacques</t>
+  </si>
+  <si>
+    <t>Lazar Spinola</t>
+  </si>
+  <si>
+    <t>Earnings</t>
+  </si>
+  <si>
+    <t>ZapapY</t>
+  </si>
+  <si>
+    <t>Screen (Hz)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -298,14 +313,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF00B050"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFC000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -348,7 +355,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -409,15 +416,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D12B8C86-4E93-4EAE-84B7-69A85E340F21}" name="France" displayName="France" ref="A1:C83" totalsRowShown="0">
-  <autoFilter ref="A1:C83" xr:uid="{D12B8C86-4E93-4EAE-84B7-69A85E340F21}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C83">
-    <sortCondition ref="A1:A83"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D12B8C86-4E93-4EAE-84B7-69A85E340F21}" name="France" displayName="France" ref="A1:D86" totalsRowShown="0">
+  <autoFilter ref="A1:D86" xr:uid="{D12B8C86-4E93-4EAE-84B7-69A85E340F21}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D86">
+    <sortCondition ref="A1:A86"/>
   </sortState>
-  <tableColumns count="3">
+  <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{D71A5C60-C9CB-4021-B21A-999D15C973E7}" name="Name" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{72C08557-87CE-4BA1-96A4-01F97269FA83}" name="Brawlhalla ID" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{622C6FC7-BEA6-4997-8416-1FB85B56A52A}" name="Ecran (Hz)" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{622C6FC7-BEA6-4997-8416-1FB85B56A52A}" name="Earnings" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{B9C81D88-2D1B-4EC0-A9DA-84B0DFA25082}" name="Screen (Hz)"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -686,10 +694,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C83"/>
+  <dimension ref="A1:D86"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -702,7 +710,7 @@
     <col min="6" max="6" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -710,192 +718,236 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+      <c r="D1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2">
         <v>2123759</v>
       </c>
-      <c r="C2" s="2"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C2" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="2">
         <v>62672086</v>
       </c>
-      <c r="C3" s="2"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C3" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="2">
         <v>18711253</v>
       </c>
-      <c r="C4" s="2"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C4" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="2">
         <v>10336731</v>
       </c>
-      <c r="C5" s="2"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C5" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="2">
         <v>2643269</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="4">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2">
         <v>144</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="2">
         <v>4281946</v>
       </c>
-      <c r="C7" s="2"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C7" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="2">
         <v>41316701</v>
       </c>
-      <c r="C8" s="2"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C8" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="2">
         <v>6319950</v>
       </c>
-      <c r="C9" s="2"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C9" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B10" s="2">
         <v>25254254</v>
       </c>
-      <c r="C10" s="2"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C10" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="2">
         <v>158608</v>
       </c>
-      <c r="C11" s="2"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C11" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B12" s="2">
         <v>9238331</v>
       </c>
-      <c r="C12" s="2"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C12" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B13" s="2">
         <v>4608774</v>
       </c>
-      <c r="C13" s="2"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C13" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B14" s="2">
         <v>12939784</v>
       </c>
-      <c r="C14" s="2"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C14" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B15" s="2">
         <v>5424846</v>
       </c>
-      <c r="C15" s="2"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C15" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B16" s="2">
         <v>1367587</v>
       </c>
-      <c r="C16" s="2"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C16" s="4">
+        <v>3377</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B17" s="2">
         <v>4303475</v>
       </c>
-      <c r="C17" s="2"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C17" s="4">
+        <v>4150</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B18" s="2">
         <v>1279448</v>
       </c>
-      <c r="C18" s="2"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C18" s="4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B19" s="2">
         <v>19800966</v>
       </c>
-      <c r="C19" s="2"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C19" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B20" s="2">
         <v>4563514</v>
       </c>
-      <c r="C20" s="2"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C20" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B21" s="2">
         <v>4708483</v>
       </c>
-      <c r="C21" s="2"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C21" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>15</v>
       </c>
@@ -903,551 +955,710 @@
         <v>3540146</v>
       </c>
       <c r="C22" s="4">
+        <v>0</v>
+      </c>
+      <c r="D22" s="2">
         <v>360</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B23" s="2">
         <v>10439301</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23" s="4">
+        <v>0</v>
+      </c>
+      <c r="D23" s="2">
         <v>60</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B24" s="2">
         <v>8615459</v>
       </c>
-      <c r="C24" s="2"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C24" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B25" s="2">
         <v>27433024</v>
       </c>
-      <c r="C25" s="2"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C25" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B26" s="2">
         <v>9099776</v>
       </c>
-      <c r="C26" s="2"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C26" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B27" s="2">
         <v>23595564</v>
       </c>
-      <c r="C27" s="2"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C27" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B28" s="2">
         <v>1819594</v>
       </c>
-      <c r="C28" s="2"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C28" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C29" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B30" s="2">
+        <v>1105093</v>
+      </c>
+      <c r="C30" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B31" s="2">
         <v>30830337</v>
       </c>
-      <c r="C30" s="2"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+      <c r="C31" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B32" s="2">
         <v>45168975</v>
       </c>
-      <c r="C31" s="2"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B32" s="2">
-        <v>3184429</v>
-      </c>
-      <c r="C32" s="2"/>
+      <c r="C32" s="4">
+        <v>3000</v>
+      </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B33" s="2">
-        <v>32891165</v>
-      </c>
-      <c r="C33" s="2"/>
+        <v>3184429</v>
+      </c>
+      <c r="C33" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>80</v>
+        <v>22</v>
       </c>
       <c r="B34" s="2">
-        <v>200122</v>
-      </c>
-      <c r="C34" s="2"/>
+        <v>32891165</v>
+      </c>
+      <c r="C34" s="4">
+        <v>150</v>
+      </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B35" s="2">
-        <v>9558549</v>
-      </c>
-      <c r="C35" s="2"/>
+        <v>85</v>
+      </c>
+      <c r="B35" s="2"/>
+      <c r="C35" s="4">
+        <v>80</v>
+      </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
-        <v>23</v>
+      <c r="A36" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="B36" s="2">
-        <v>628502</v>
-      </c>
-      <c r="C36" s="2"/>
+        <v>200122</v>
+      </c>
+      <c r="C36" s="4">
+        <v>25220</v>
+      </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B37" s="2">
+        <v>9558549</v>
+      </c>
+      <c r="C37" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B38" s="2">
+        <v>628502</v>
+      </c>
+      <c r="C38" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B39" s="2">
         <v>2875216</v>
       </c>
-      <c r="C37" s="2"/>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B38" s="2">
-        <v>63706748</v>
-      </c>
-      <c r="C38" s="2"/>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B39" s="2">
-        <v>9542361</v>
-      </c>
-      <c r="C39" s="2"/>
+      <c r="C39" s="4">
+        <v>80</v>
+      </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B40" s="2">
-        <v>33132832</v>
-      </c>
-      <c r="C40" s="2"/>
+        <v>63706748</v>
+      </c>
+      <c r="C40" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>26</v>
+      <c r="A41" s="3" t="s">
+        <v>60</v>
       </c>
       <c r="B41" s="2">
-        <v>37962038</v>
-      </c>
-      <c r="C41" s="2"/>
+        <v>9542361</v>
+      </c>
+      <c r="C41" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B42" s="2">
-        <v>588314</v>
-      </c>
-      <c r="C42" s="2"/>
+        <v>33132832</v>
+      </c>
+      <c r="C42" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B43" s="2">
-        <v>10080900</v>
-      </c>
-      <c r="C43" s="2"/>
+        <v>37962038</v>
+      </c>
+      <c r="C43" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B44" s="2">
-        <v>1240977</v>
-      </c>
-      <c r="C44" s="2"/>
+        <v>588314</v>
+      </c>
+      <c r="C44" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B45" s="2">
-        <v>6328368</v>
-      </c>
-      <c r="C45" s="2"/>
+        <v>10080900</v>
+      </c>
+      <c r="C45" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="B46" s="2">
-        <v>2118780</v>
-      </c>
-      <c r="C46" s="2"/>
+        <v>1240977</v>
+      </c>
+      <c r="C46" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>74</v>
+        <v>30</v>
       </c>
       <c r="B47" s="2">
-        <v>63730170</v>
-      </c>
-      <c r="C47" s="2"/>
+        <v>6328368</v>
+      </c>
+      <c r="C47" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>31</v>
+        <v>66</v>
       </c>
       <c r="B48" s="2">
-        <v>24778112</v>
-      </c>
-      <c r="C48" s="2"/>
+        <v>2118780</v>
+      </c>
+      <c r="C48" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B49" s="2">
-        <v>1862459</v>
-      </c>
-      <c r="C49" s="2"/>
+        <v>63730170</v>
+      </c>
+      <c r="C49" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B50" s="2">
-        <v>7555072</v>
-      </c>
-      <c r="C50" s="2"/>
+        <v>24778112</v>
+      </c>
+      <c r="C50" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
+      <c r="A51" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B51" s="2">
+        <v>1862459</v>
+      </c>
+      <c r="C51" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B52" s="2">
+        <v>7555072</v>
+      </c>
+      <c r="C52" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B53" s="2"/>
+      <c r="C53" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B52" s="2">
+      <c r="B54" s="2">
         <v>9633608</v>
       </c>
-      <c r="C52" s="2"/>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
+      <c r="C54" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B53" s="2">
+      <c r="B55" s="2">
         <v>2869327</v>
       </c>
-      <c r="C53" s="2"/>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="3" t="s">
+      <c r="C55" s="4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B54" s="2">
+      <c r="B56" s="2">
         <v>72329317</v>
       </c>
-      <c r="C54" s="2"/>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="3" t="s">
+      <c r="C56" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B55" s="2"/>
-      <c r="C55" s="2"/>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B56" s="2">
+      <c r="B57" s="2"/>
+      <c r="C57" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B58" s="2">
         <v>4138490</v>
       </c>
-      <c r="C56" s="2"/>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B57" s="2">
-        <v>337254</v>
-      </c>
-      <c r="C57" s="2"/>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B58" s="2"/>
-      <c r="C58" s="2"/>
+      <c r="C58" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B59" s="2">
-        <v>7970886</v>
-      </c>
-      <c r="C59" s="2"/>
+        <v>337254</v>
+      </c>
+      <c r="C59" s="4">
+        <v>100</v>
+      </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B60" s="2">
-        <v>32417896</v>
-      </c>
-      <c r="C60" s="2"/>
+      <c r="A60" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B60" s="2"/>
+      <c r="C60" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="B61" s="2">
-        <v>70129836</v>
-      </c>
-      <c r="C61" s="2"/>
+        <v>7970886</v>
+      </c>
+      <c r="C61" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="B62" s="2">
-        <v>4454684</v>
-      </c>
-      <c r="C62" s="2"/>
+        <v>32417896</v>
+      </c>
+      <c r="C62" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="B63" s="2">
-        <v>7470522</v>
-      </c>
-      <c r="C63" s="2"/>
+        <v>70129836</v>
+      </c>
+      <c r="C63" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>84</v>
+        <v>39</v>
       </c>
       <c r="B64" s="2">
+        <v>4454684</v>
+      </c>
+      <c r="C64" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B65" s="2">
+        <v>7470522</v>
+      </c>
+      <c r="C65" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B66" s="2">
         <v>7159263</v>
       </c>
-      <c r="C64" s="2"/>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="3" t="s">
+      <c r="C66" s="4">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B65" s="2">
+      <c r="B67" s="2">
         <v>61841362</v>
       </c>
-      <c r="C65" s="2"/>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
+      <c r="C67" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B66" s="2">
+      <c r="B68" s="2">
         <v>5805481</v>
       </c>
-      <c r="C66" s="2"/>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B67" s="2">
+      <c r="C68" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B69" s="2">
         <v>25296520</v>
       </c>
-      <c r="C67" s="2">
+      <c r="C69" s="4">
+        <v>3825</v>
+      </c>
+      <c r="D69" s="2">
         <v>390</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B68" s="2">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B70" s="2">
         <v>3570888</v>
       </c>
-      <c r="C68" s="2"/>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B69" s="2">
+      <c r="C70" s="4">
+        <v>1720</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B71" s="2">
+        <v>481854</v>
+      </c>
+      <c r="C71" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B72" s="2">
         <v>1627540</v>
       </c>
-      <c r="C69" s="2"/>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
+      <c r="C72" s="4">
+        <v>3672</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B70" s="2">
+      <c r="B73" s="2">
         <v>39768578</v>
       </c>
-      <c r="C70" s="2"/>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
+      <c r="C73" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B71" s="2">
+      <c r="B74" s="2">
         <v>2412539</v>
       </c>
-      <c r="C71" s="2">
+      <c r="C74" s="4">
+        <v>26180</v>
+      </c>
+      <c r="D74" s="2">
         <v>360</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B72" s="2">
+      <c r="B75" s="2">
         <v>338489</v>
       </c>
-      <c r="C72" s="2"/>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="s">
+      <c r="C75" s="4">
+        <v>6105</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B73" s="2">
+      <c r="B76" s="2">
         <v>8830089</v>
       </c>
-      <c r="C73" s="2"/>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
+      <c r="C76" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B74" s="2">
+      <c r="B77" s="2">
         <v>3252577</v>
       </c>
-      <c r="C74" s="2"/>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="3" t="s">
+      <c r="C77" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B75" s="2"/>
-      <c r="C75" s="2"/>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="3" t="s">
+      <c r="B78" s="2"/>
+      <c r="C78" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B76" s="2"/>
-      <c r="C76" s="2"/>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B77" s="2">
+      <c r="B79" s="2"/>
+      <c r="C79" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B80" s="2">
         <v>7808660</v>
       </c>
-      <c r="C77" s="2"/>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B78" s="2">
-        <v>4444124</v>
-      </c>
-      <c r="C78" s="2"/>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B79" s="2">
-        <v>5006383</v>
-      </c>
-      <c r="C79" s="2"/>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B80" s="2">
-        <v>56869252</v>
-      </c>
-      <c r="C80" s="2"/>
+      <c r="C80" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B81" s="2">
-        <v>1257608</v>
-      </c>
-      <c r="C81" s="2"/>
+        <v>4444124</v>
+      </c>
+      <c r="C81" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="B82" s="2">
+        <v>5006383</v>
+      </c>
+      <c r="C82" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B83" s="2">
+        <v>56869252</v>
+      </c>
+      <c r="C83" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B84" s="2">
+        <v>1257608</v>
+      </c>
+      <c r="C84" s="4">
+        <v>4550</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B85" s="2">
         <v>9757291</v>
       </c>
-      <c r="C82" s="2"/>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B83" s="2">
+      <c r="C85" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B86" s="2">
         <v>67424649</v>
       </c>
-      <c r="C83" s="2"/>
+      <c r="C86" s="4">
+        <v>300</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/bestPlayers.xlsx
+++ b/bestPlayers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Neo Dossier Alexis\Web Projects\BrawlhallaBestCountryPlayersRanksBackend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AF04548-AE51-4A49-A6B3-4FF0F4F828FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8B867C4-8B53-4F2A-8AC2-7ADFC1318A58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
   <si>
     <t>Name</t>
   </si>
@@ -93,9 +93,6 @@
     <t>Kotaï</t>
   </si>
   <si>
-    <t>Kuro</t>
-  </si>
-  <si>
     <t>Makima</t>
   </si>
   <si>
@@ -111,9 +108,6 @@
     <t>Naven</t>
   </si>
   <si>
-    <t>Nemy</t>
-  </si>
-  <si>
     <t>Nico</t>
   </si>
   <si>
@@ -123,9 +117,6 @@
     <t>Pierre-Cha</t>
   </si>
   <si>
-    <t>Pndx</t>
-  </si>
-  <si>
     <t>R2</t>
   </si>
   <si>
@@ -292,6 +283,24 @@
   </si>
   <si>
     <t>Screen (Hz)</t>
+  </si>
+  <si>
+    <t>Kuro'</t>
+  </si>
+  <si>
+    <t>Flappy</t>
+  </si>
+  <si>
+    <t>N-M</t>
+  </si>
+  <si>
+    <t>Nemy'</t>
+  </si>
+  <si>
+    <t>PndX</t>
+  </si>
+  <si>
+    <t>Yann_X</t>
   </si>
 </sst>
 </file>
@@ -299,9 +308,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -311,6 +320,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF00B050"/>
       <name val="Calibri"/>
@@ -338,7 +354,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -346,16 +362,53 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -416,10 +469,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D12B8C86-4E93-4EAE-84B7-69A85E340F21}" name="France" displayName="France" ref="A1:D86" totalsRowShown="0">
-  <autoFilter ref="A1:D86" xr:uid="{D12B8C86-4E93-4EAE-84B7-69A85E340F21}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D86">
-    <sortCondition ref="A1:A86"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D12B8C86-4E93-4EAE-84B7-69A85E340F21}" name="France" displayName="France" ref="A1:D88" totalsRowShown="0">
+  <autoFilter ref="A1:D88" xr:uid="{D12B8C86-4E93-4EAE-84B7-69A85E340F21}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D88">
+    <sortCondition ref="A1:A88"/>
   </sortState>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{D71A5C60-C9CB-4021-B21A-999D15C973E7}" name="Name" dataDxfId="2"/>
@@ -694,10 +747,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D86"/>
+  <dimension ref="A1:J89"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F84" sqref="F84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -710,7 +763,7 @@
     <col min="6" max="6" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -718,13 +771,13 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -734,8 +787,18 @@
       <c r="C2" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G2" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="H2" s="7">
+        <v>7808660</v>
+      </c>
+      <c r="I2" s="8">
+        <v>0</v>
+      </c>
+      <c r="J2" s="5"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -746,7 +809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -757,7 +820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -768,7 +831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -782,7 +845,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -793,7 +856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -804,7 +867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
@@ -815,9 +878,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B10" s="2">
         <v>25254254</v>
@@ -826,7 +889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
@@ -837,7 +900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
@@ -848,9 +911,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B13" s="2">
         <v>4608774</v>
@@ -859,9 +922,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B14" s="2">
         <v>12939784</v>
@@ -870,9 +933,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B15" s="2">
         <v>5424846</v>
@@ -881,9 +944,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B16" s="2">
         <v>1367587</v>
@@ -897,7 +960,7 @@
         <v>12</v>
       </c>
       <c r="B17" s="2">
-        <v>4303475</v>
+        <v>48772510</v>
       </c>
       <c r="C17" s="4">
         <v>4150</v>
@@ -905,7 +968,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B18" s="2">
         <v>1279448</v>
@@ -916,7 +979,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B19" s="2">
         <v>19800966</v>
@@ -963,35 +1026,35 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>16</v>
+        <v>87</v>
       </c>
       <c r="B23" s="2">
-        <v>10439301</v>
+        <v>25116293</v>
       </c>
       <c r="C23" s="4">
         <v>0</v>
-      </c>
-      <c r="D23" s="2">
-        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>75</v>
+        <v>16</v>
       </c>
       <c r="B24" s="2">
-        <v>8615459</v>
+        <v>10439301</v>
       </c>
       <c r="C24" s="4">
         <v>0</v>
+      </c>
+      <c r="D24" s="2">
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B25" s="2">
-        <v>27433024</v>
+        <v>8615459</v>
       </c>
       <c r="C25" s="4">
         <v>0</v>
@@ -999,10 +1062,10 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>17</v>
+        <v>73</v>
       </c>
       <c r="B26" s="2">
-        <v>9099776</v>
+        <v>27433024</v>
       </c>
       <c r="C26" s="4">
         <v>0</v>
@@ -1010,10 +1073,10 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>77</v>
+        <v>17</v>
       </c>
       <c r="B27" s="2">
-        <v>23595564</v>
+        <v>9099776</v>
       </c>
       <c r="C27" s="4">
         <v>0</v>
@@ -1021,10 +1084,10 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="B28" s="2">
-        <v>1819594</v>
+        <v>23595564</v>
       </c>
       <c r="C28" s="4">
         <v>0</v>
@@ -1032,149 +1095,149 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B29" s="2"/>
+        <v>18</v>
+      </c>
+      <c r="B29" s="2">
+        <v>1819594</v>
+      </c>
       <c r="C29" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B30" s="2">
-        <v>1105093</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="B30" s="2"/>
       <c r="C30" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>19</v>
+        <v>81</v>
       </c>
       <c r="B31" s="2">
-        <v>30830337</v>
+        <v>1105093</v>
       </c>
       <c r="C31" s="4">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B32" s="2">
-        <v>45168975</v>
+        <v>30830337</v>
       </c>
       <c r="C32" s="4">
-        <v>3000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B33" s="2">
-        <v>3184429</v>
+        <v>45168975</v>
       </c>
       <c r="C33" s="4">
-        <v>0</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B34" s="2">
-        <v>32891165</v>
+        <v>3184429</v>
       </c>
       <c r="C34" s="4">
-        <v>150</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B35" s="2"/>
+        <v>86</v>
+      </c>
+      <c r="B35" s="2">
+        <v>5270270</v>
+      </c>
       <c r="C35" s="4">
-        <v>80</v>
+        <v>150</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B36" s="2">
-        <v>200122</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="B36" s="2"/>
       <c r="C36" s="4">
-        <v>25220</v>
+        <v>80</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="B37" s="2">
+        <v>200122</v>
+      </c>
+      <c r="C37" s="4">
+        <v>25220</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B38" s="2">
         <v>9558549</v>
       </c>
-      <c r="C37" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B38" s="2">
+      <c r="C38" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B39" s="2">
         <v>628502</v>
       </c>
-      <c r="C38" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B39" s="2">
-        <v>2875216</v>
-      </c>
       <c r="C39" s="4">
-        <v>80</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="B40" s="2">
+        <v>2875216</v>
+      </c>
+      <c r="C40" s="4">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B41" s="2">
         <v>63706748</v>
       </c>
-      <c r="C40" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B41" s="2">
+      <c r="C41" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B42" s="2">
         <v>9542361</v>
-      </c>
-      <c r="C41" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B42" s="2">
-        <v>33132832</v>
       </c>
       <c r="C42" s="4">
         <v>0</v>
@@ -1182,10 +1245,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B43" s="2">
-        <v>37962038</v>
+        <v>33132832</v>
       </c>
       <c r="C43" s="4">
         <v>0</v>
@@ -1193,10 +1256,10 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B44" s="2">
-        <v>588314</v>
+        <v>37962038</v>
       </c>
       <c r="C44" s="4">
         <v>0</v>
@@ -1204,10 +1267,10 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B45" s="2">
-        <v>10080900</v>
+        <v>588314</v>
       </c>
       <c r="C45" s="4">
         <v>0</v>
@@ -1215,10 +1278,10 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>29</v>
+        <v>89</v>
       </c>
       <c r="B46" s="2">
-        <v>1240977</v>
+        <v>7677560</v>
       </c>
       <c r="C46" s="4">
         <v>0</v>
@@ -1226,10 +1289,10 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B47" s="2">
-        <v>6328368</v>
+        <v>1240977</v>
       </c>
       <c r="C47" s="4">
         <v>0</v>
@@ -1237,10 +1300,10 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>66</v>
+        <v>28</v>
       </c>
       <c r="B48" s="2">
-        <v>2118780</v>
+        <v>6328368</v>
       </c>
       <c r="C48" s="4">
         <v>0</v>
@@ -1248,21 +1311,19 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="B49" s="2">
-        <v>63730170</v>
-      </c>
-      <c r="C49" s="4">
-        <v>0</v>
-      </c>
+        <v>10080900</v>
+      </c>
+      <c r="C49" s="2"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="B50" s="2">
-        <v>24778112</v>
+        <v>2118780</v>
       </c>
       <c r="C50" s="4">
         <v>0</v>
@@ -1270,10 +1331,10 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B51" s="2">
-        <v>1862459</v>
+        <v>63730170</v>
       </c>
       <c r="C51" s="4">
         <v>0</v>
@@ -1281,125 +1342,125 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B52" s="2">
-        <v>7555072</v>
+        <v>24778112</v>
       </c>
       <c r="C52" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B53" s="2"/>
+      <c r="A53" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B53" s="2">
+        <v>1862459</v>
+      </c>
       <c r="C53" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B54" s="2">
+        <v>7555072</v>
+      </c>
+      <c r="C54" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B55" s="2"/>
+      <c r="C55" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B56" s="2">
+        <v>9633608</v>
+      </c>
+      <c r="C56" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B57" s="2">
+        <v>2869327</v>
+      </c>
+      <c r="C57" s="4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B58" s="2">
+        <v>72329317</v>
+      </c>
+      <c r="C58" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B54" s="2">
-        <v>9633608</v>
-      </c>
-      <c r="C54" s="4">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B55" s="2">
-        <v>2869327</v>
-      </c>
-      <c r="C55" s="4">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B56" s="2">
-        <v>72329317</v>
-      </c>
-      <c r="C56" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B57" s="2"/>
-      <c r="C57" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B58" s="2">
+      <c r="B59" s="2"/>
+      <c r="C59" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B60" s="2">
         <v>4138490</v>
       </c>
-      <c r="C58" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B59" s="2">
-        <v>337254</v>
-      </c>
-      <c r="C59" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B60" s="2"/>
       <c r="C60" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B61" s="2">
-        <v>7970886</v>
+        <v>337254</v>
       </c>
       <c r="C61" s="4">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B62" s="2">
-        <v>32417896</v>
-      </c>
+      <c r="A62" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B62" s="2"/>
       <c r="C62" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="B63" s="2">
-        <v>70129836</v>
+        <v>7970886</v>
       </c>
       <c r="C63" s="4">
         <v>0</v>
@@ -1407,10 +1468,10 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="B64" s="2">
-        <v>4454684</v>
+        <v>32417896</v>
       </c>
       <c r="C64" s="4">
         <v>0</v>
@@ -1418,10 +1479,10 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="B65" s="2">
-        <v>7470522</v>
+        <v>70129836</v>
       </c>
       <c r="C65" s="4">
         <v>0</v>
@@ -1429,21 +1490,21 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>82</v>
+        <v>36</v>
       </c>
       <c r="B66" s="2">
-        <v>7159263</v>
+        <v>4454684</v>
       </c>
       <c r="C66" s="4">
-        <v>150</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="3" t="s">
-        <v>41</v>
+      <c r="A67" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="B67" s="2">
-        <v>61841362</v>
+        <v>7470522</v>
       </c>
       <c r="C67" s="4">
         <v>0</v>
@@ -1451,177 +1512,177 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>42</v>
+        <v>79</v>
       </c>
       <c r="B68" s="2">
-        <v>5805481</v>
+        <v>7159263</v>
       </c>
       <c r="C68" s="4">
-        <v>0</v>
+        <v>150</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
-        <v>67</v>
+      <c r="A69" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="B69" s="2">
-        <v>25296520</v>
+        <v>61841362</v>
       </c>
       <c r="C69" s="4">
-        <v>3825</v>
-      </c>
-      <c r="D69" s="2">
-        <v>390</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>39</v>
       </c>
       <c r="B70" s="2">
-        <v>3570888</v>
+        <v>5805481</v>
       </c>
       <c r="C70" s="4">
-        <v>1720</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="B71" s="2">
-        <v>481854</v>
+        <v>25296520</v>
       </c>
       <c r="C71" s="4">
-        <v>30</v>
+        <v>3825</v>
+      </c>
+      <c r="D71" s="2">
+        <v>390</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="B72" s="2">
-        <v>1627540</v>
+        <v>3570888</v>
       </c>
       <c r="C72" s="4">
-        <v>3672</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="B73" s="2">
-        <v>39768578</v>
+        <v>481854</v>
       </c>
       <c r="C73" s="4">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="B74" s="2">
-        <v>2412539</v>
+        <v>1627540</v>
       </c>
       <c r="C74" s="4">
-        <v>26180</v>
-      </c>
-      <c r="D74" s="2">
-        <v>360</v>
+        <v>3672</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B75" s="2">
-        <v>338489</v>
+        <v>39768578</v>
       </c>
       <c r="C75" s="4">
-        <v>6105</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B76" s="2">
-        <v>8830089</v>
+        <v>2412539</v>
       </c>
       <c r="C76" s="4">
-        <v>0</v>
+        <v>26180</v>
+      </c>
+      <c r="D76" s="2">
+        <v>360</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B77" s="2">
+        <v>338489</v>
+      </c>
+      <c r="C77" s="4">
+        <v>6105</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B78" s="2">
+        <v>8830089</v>
+      </c>
+      <c r="C78" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B79" s="2">
         <v>3252577</v>
       </c>
-      <c r="C77" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B78" s="2"/>
-      <c r="C78" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B79" s="2"/>
       <c r="C79" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B80" s="2">
-        <v>7808660</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="B80" s="2"/>
       <c r="C80" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B81" s="2">
-        <v>4444124</v>
-      </c>
+      <c r="A81" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B81" s="2"/>
       <c r="C81" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B82" s="2">
+        <v>4444124</v>
+      </c>
+      <c r="C82" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B83" s="2">
         <v>5006383</v>
-      </c>
-      <c r="C82" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B83" s="2">
-        <v>56869252</v>
       </c>
       <c r="C83" s="4">
         <v>0</v>
@@ -1629,41 +1690,69 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="B84" s="2">
-        <v>1257608</v>
+        <v>56869252</v>
       </c>
       <c r="C84" s="4">
-        <v>4550</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B85" s="2">
-        <v>9757291</v>
+        <v>1257608</v>
       </c>
       <c r="C85" s="4">
-        <v>0</v>
+        <v>4550</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="B86" s="2">
+        <v>9757291</v>
+      </c>
+      <c r="C86" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B87" s="2">
         <v>67424649</v>
       </c>
-      <c r="C86" s="4">
+      <c r="C87" s="4">
         <v>300</v>
       </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B88" s="2">
+        <v>1823973</v>
+      </c>
+      <c r="C88" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="9"/>
+      <c r="B89" s="10"/>
+      <c r="C89" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/bestPlayers.xlsx
+++ b/bestPlayers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Neo Dossier Alexis\Web Projects\BrawlhallaBestCountryPlayersRanksBackend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8B867C4-8B53-4F2A-8AC2-7ADFC1318A58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31F953D8-B704-4073-8BF3-7C78C4E3E59B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1125" yWindow="1125" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -749,8 +749,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F84" sqref="F84"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1701,46 +1701,46 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="B85" s="2">
-        <v>1257608</v>
+        <v>1823973</v>
       </c>
       <c r="C85" s="4">
-        <v>4550</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="B86" s="2">
-        <v>9757291</v>
+        <v>1257608</v>
       </c>
       <c r="C86" s="4">
-        <v>0</v>
+        <v>4550</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="B87" s="2">
-        <v>67424649</v>
+        <v>9757291</v>
       </c>
       <c r="C87" s="4">
-        <v>300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="B88" s="2">
-        <v>1823973</v>
+        <v>67424649</v>
       </c>
       <c r="C88" s="4">
-        <v>0</v>
+        <v>300</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">

--- a/bestPlayers.xlsx
+++ b/bestPlayers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Neo Dossier Alexis\Web Projects\BrawlhallaBestCountryPlayersRanksBackend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31F953D8-B704-4073-8BF3-7C78C4E3E59B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B940368B-5676-4B9E-8497-A4DAE6C35A8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="1125" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
   <si>
     <t>Name</t>
   </si>
@@ -226,9 +226,6 @@
   </si>
   <si>
     <t>Romanraa</t>
-  </si>
-  <si>
-    <t>VorTex_Alexis</t>
   </si>
   <si>
     <t>XSazurx</t>
@@ -354,7 +351,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -362,53 +359,23 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -750,7 +717,7 @@
   <dimension ref="A1:J89"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -771,11 +738,15 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D1" t="s">
-        <v>85</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -787,16 +758,10 @@
       <c r="C2" s="4">
         <v>0</v>
       </c>
-      <c r="G2" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="H2" s="7">
-        <v>7808660</v>
-      </c>
-      <c r="I2" s="8">
-        <v>0</v>
-      </c>
-      <c r="J2" s="5"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="11"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -979,7 +944,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B19" s="2">
         <v>19800966</v>
@@ -1026,7 +991,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B23" s="2">
         <v>25116293</v>
@@ -1051,7 +1016,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B25" s="2">
         <v>8615459</v>
@@ -1062,7 +1027,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B26" s="2">
         <v>27433024</v>
@@ -1084,7 +1049,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B28" s="2">
         <v>23595564</v>
@@ -1106,7 +1071,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" s="4">
@@ -1115,7 +1080,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B31" s="2">
         <v>1105093</v>
@@ -1159,7 +1124,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B35" s="2">
         <v>5270270</v>
@@ -1170,7 +1135,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" s="4">
@@ -1179,7 +1144,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B37" s="2">
         <v>200122</v>
@@ -1278,7 +1243,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B46" s="2">
         <v>7677560</v>
@@ -1311,12 +1276,14 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B49" s="2">
         <v>10080900</v>
       </c>
-      <c r="C49" s="2"/>
+      <c r="C49" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
@@ -1331,7 +1298,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B51" s="2">
         <v>63730170</v>
@@ -1364,7 +1331,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B54" s="2">
         <v>7555072</v>
@@ -1479,7 +1446,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B65" s="2">
         <v>70129836</v>
@@ -1512,7 +1479,7 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B68" s="2">
         <v>7159263</v>
@@ -1559,7 +1526,7 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B72" s="2">
         <v>3570888</v>
@@ -1570,7 +1537,7 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B73" s="2">
         <v>481854</v>
@@ -1690,7 +1657,7 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B84" s="2">
         <v>56869252</v>
@@ -1701,7 +1668,7 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B85" s="2">
         <v>1823973</v>
@@ -1712,7 +1679,7 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B86" s="2">
         <v>1257608</v>
@@ -1723,7 +1690,7 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B87" s="2">
         <v>9757291</v>
@@ -1744,9 +1711,9 @@
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" s="9"/>
-      <c r="B89" s="10"/>
-      <c r="C89" s="10"/>
+      <c r="A89" s="5"/>
+      <c r="B89" s="6"/>
+      <c r="C89" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/bestPlayers.xlsx
+++ b/bestPlayers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Neo Dossier Alexis\Web Projects\BrawlhallaBestCountryPlayersRanksBackend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B940368B-5676-4B9E-8497-A4DAE6C35A8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C46D7077-DFA8-4252-80F4-0A39B013A661}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
   <si>
     <t>Name</t>
   </si>
@@ -75,9 +75,6 @@
     <t>Fezaru80</t>
   </si>
   <si>
-    <t>Fzm</t>
-  </si>
-  <si>
     <t>IIceJotaro</t>
   </si>
   <si>
@@ -162,12 +159,6 @@
     <t>Urbador</t>
   </si>
   <si>
-    <t>Vexxuxe</t>
-  </si>
-  <si>
-    <t>Vixa</t>
-  </si>
-  <si>
     <t>VP</t>
   </si>
   <si>
@@ -207,9 +198,6 @@
     <t>Saiyajin</t>
   </si>
   <si>
-    <t>B.A.T | Zoro</t>
-  </si>
-  <si>
     <t>Clap</t>
   </si>
   <si>
@@ -222,9 +210,6 @@
     <t>Spectre.</t>
   </si>
   <si>
-    <t>SanMax™</t>
-  </si>
-  <si>
     <t>Romanraa</t>
   </si>
   <si>
@@ -234,9 +219,6 @@
     <t>OxVenn</t>
   </si>
   <si>
-    <t>Saphir£</t>
-  </si>
-  <si>
     <t>SpyroX</t>
   </si>
   <si>
@@ -252,9 +234,6 @@
     <t>Machèèèèté</t>
   </si>
   <si>
-    <t>ExodiiiiiiiA</t>
-  </si>
-  <si>
     <t>zBlackneight</t>
   </si>
   <si>
@@ -298,6 +277,75 @@
   </si>
   <si>
     <t>Yann_X</t>
+  </si>
+  <si>
+    <t>ExodiA</t>
+  </si>
+  <si>
+    <t>Saphir?</t>
+  </si>
+  <si>
+    <t>Crunchy</t>
+  </si>
+  <si>
+    <t>Qan</t>
+  </si>
+  <si>
+    <t>VorTex_Alexis</t>
+  </si>
+  <si>
+    <t>Mehdou</t>
+  </si>
+  <si>
+    <t>Yamaha</t>
+  </si>
+  <si>
+    <t>cLuK</t>
+  </si>
+  <si>
+    <t>ASX_BH</t>
+  </si>
+  <si>
+    <t>Bouss</t>
+  </si>
+  <si>
+    <t>Xorldz</t>
+  </si>
+  <si>
+    <t>Cana</t>
+  </si>
+  <si>
+    <t>Phobie</t>
+  </si>
+  <si>
+    <t>B.A.T | ZORO</t>
+  </si>
+  <si>
+    <t>SanMax</t>
+  </si>
+  <si>
+    <t>Meydey</t>
+  </si>
+  <si>
+    <t>Vexuxe</t>
+  </si>
+  <si>
+    <t>Azatsu</t>
+  </si>
+  <si>
+    <t>BanLePoulpe</t>
+  </si>
+  <si>
+    <t>MT | RTZ</t>
+  </si>
+  <si>
+    <t>Sorkez</t>
+  </si>
+  <si>
+    <t>FzM</t>
+  </si>
+  <si>
+    <t>SnaKe</t>
   </si>
 </sst>
 </file>
@@ -307,7 +355,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -317,13 +365,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF00B050"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF00B050"/>
       <name val="Calibri"/>
@@ -363,14 +404,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -436,10 +475,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D12B8C86-4E93-4EAE-84B7-69A85E340F21}" name="France" displayName="France" ref="A1:D88" totalsRowShown="0">
-  <autoFilter ref="A1:D88" xr:uid="{D12B8C86-4E93-4EAE-84B7-69A85E340F21}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D88">
-    <sortCondition ref="A1:A88"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D12B8C86-4E93-4EAE-84B7-69A85E340F21}" name="France" displayName="France" ref="A1:D104" totalsRowShown="0">
+  <autoFilter ref="A1:D104" xr:uid="{D12B8C86-4E93-4EAE-84B7-69A85E340F21}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D104">
+    <sortCondition ref="A1:A104"/>
   </sortState>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{D71A5C60-C9CB-4021-B21A-999D15C973E7}" name="Name" dataDxfId="2"/>
@@ -714,10 +753,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J89"/>
+  <dimension ref="A1:J104"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -738,15 +777,15 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="D1" t="s">
-        <v>84</v>
-      </c>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
+        <v>77</v>
+      </c>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -758,10 +797,10 @@
       <c r="C2" s="4">
         <v>0</v>
       </c>
-      <c r="G2" s="8"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="11"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="9"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -844,33 +883,33 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>60</v>
+      <c r="A10" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="B10" s="2">
+        <v>29733011</v>
+      </c>
+      <c r="C10" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B11" s="2">
+        <v>2748864</v>
+      </c>
+      <c r="C11" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B12" s="2">
         <v>25254254</v>
-      </c>
-      <c r="C10" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2">
-        <v>158608</v>
-      </c>
-      <c r="C11" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="2">
-        <v>9238331</v>
       </c>
       <c r="C12" s="4">
         <v>0</v>
@@ -878,21 +917,21 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>61</v>
+        <v>102</v>
       </c>
       <c r="B13" s="2">
-        <v>4608774</v>
+        <v>6406021</v>
       </c>
       <c r="C13" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>56</v>
+      <c r="A14" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="B14" s="2">
-        <v>12939784</v>
+        <v>158608</v>
       </c>
       <c r="C14" s="4">
         <v>0</v>
@@ -900,10 +939,10 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>50</v>
+        <v>93</v>
       </c>
       <c r="B15" s="2">
-        <v>5424846</v>
+        <v>7175314</v>
       </c>
       <c r="C15" s="4">
         <v>0</v>
@@ -911,43 +950,43 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>54</v>
+        <v>95</v>
       </c>
       <c r="B16" s="2">
-        <v>1367587</v>
+        <v>4455324</v>
       </c>
       <c r="C16" s="4">
-        <v>3377</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B17" s="2">
-        <v>48772510</v>
+        <v>9238331</v>
       </c>
       <c r="C17" s="4">
-        <v>4150</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B18" s="2">
-        <v>1279448</v>
+        <v>4608774</v>
       </c>
       <c r="C18" s="4">
-        <v>70</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="B19" s="2">
-        <v>19800966</v>
+        <v>23477768</v>
       </c>
       <c r="C19" s="4">
         <v>0</v>
@@ -955,10 +994,10 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="B20" s="2">
-        <v>4563514</v>
+        <v>12939784</v>
       </c>
       <c r="C20" s="4">
         <v>0</v>
@@ -966,10 +1005,10 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="B21" s="2">
-        <v>4708483</v>
+        <v>5424846</v>
       </c>
       <c r="C21" s="4">
         <v>0</v>
@@ -977,60 +1016,54 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>15</v>
+        <v>86</v>
       </c>
       <c r="B22" s="2">
-        <v>3540146</v>
+        <v>9403791</v>
       </c>
       <c r="C22" s="4">
         <v>0</v>
-      </c>
-      <c r="D22" s="2">
-        <v>360</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>86</v>
+        <v>51</v>
       </c>
       <c r="B23" s="2">
-        <v>25116293</v>
+        <v>1367587</v>
       </c>
       <c r="C23" s="4">
-        <v>0</v>
+        <v>3377</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B24" s="2">
-        <v>10439301</v>
+        <v>48772510</v>
       </c>
       <c r="C24" s="4">
-        <v>0</v>
-      </c>
-      <c r="D24" s="2">
-        <v>60</v>
+        <v>4150</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="B25" s="2">
-        <v>8615459</v>
+        <v>1279448</v>
       </c>
       <c r="C25" s="4">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="B26" s="2">
-        <v>27433024</v>
+        <v>19800966</v>
       </c>
       <c r="C26" s="4">
         <v>0</v>
@@ -1038,10 +1071,10 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B27" s="2">
-        <v>9099776</v>
+        <v>4563514</v>
       </c>
       <c r="C27" s="4">
         <v>0</v>
@@ -1049,10 +1082,10 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>73</v>
+        <v>14</v>
       </c>
       <c r="B28" s="2">
-        <v>23595564</v>
+        <v>4708483</v>
       </c>
       <c r="C28" s="4">
         <v>0</v>
@@ -1060,41 +1093,49 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B29" s="2">
-        <v>1819594</v>
+        <v>3540146</v>
       </c>
       <c r="C29" s="4">
         <v>0</v>
+      </c>
+      <c r="D29" s="2">
+        <v>360</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B30" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="B30" s="2">
+        <v>25116293</v>
+      </c>
       <c r="C30" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="B31" s="2">
-        <v>1105093</v>
+        <v>10439301</v>
       </c>
       <c r="C31" s="4">
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="D31" s="2">
+        <v>60</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="B32" s="2">
-        <v>30830337</v>
+        <v>8615459</v>
       </c>
       <c r="C32" s="4">
         <v>0</v>
@@ -1102,21 +1143,21 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="B33" s="2">
-        <v>45168975</v>
+        <v>27433024</v>
       </c>
       <c r="C33" s="4">
-        <v>3000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B34" s="2">
-        <v>3184429</v>
+        <v>9099776</v>
       </c>
       <c r="C34" s="4">
         <v>0</v>
@@ -1124,52 +1165,52 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="B35" s="2">
-        <v>5270270</v>
+        <v>23595564</v>
       </c>
       <c r="C35" s="4">
-        <v>150</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B36" s="2"/>
+        <v>17</v>
+      </c>
+      <c r="B36" s="2">
+        <v>1819594</v>
+      </c>
       <c r="C36" s="4">
-        <v>80</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B37" s="2">
-        <v>200122</v>
-      </c>
+      <c r="A37" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B37" s="2"/>
       <c r="C37" s="4">
-        <v>25220</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="B38" s="2">
-        <v>9558549</v>
+        <v>1105093</v>
       </c>
       <c r="C38" s="4">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
-        <v>22</v>
+      <c r="A39" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="B39" s="2">
-        <v>628502</v>
+        <v>30830337</v>
       </c>
       <c r="C39" s="4">
         <v>0</v>
@@ -1177,65 +1218,63 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="B40" s="2">
-        <v>2875216</v>
+        <v>45168975</v>
       </c>
       <c r="C40" s="4">
-        <v>80</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B41" s="2">
-        <v>63706748</v>
+        <v>3184429</v>
       </c>
       <c r="C41" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
-        <v>57</v>
+      <c r="A42" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="B42" s="2">
-        <v>9542361</v>
+        <v>5270270</v>
       </c>
       <c r="C42" s="4">
-        <v>0</v>
+        <v>150</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B43" s="2">
-        <v>33132832</v>
-      </c>
+      <c r="A43" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B43" s="2"/>
       <c r="C43" s="4">
-        <v>0</v>
+        <v>80</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="B44" s="2">
-        <v>37962038</v>
+        <v>200122</v>
       </c>
       <c r="C44" s="4">
-        <v>0</v>
+        <v>25220</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="B45" s="2">
-        <v>588314</v>
+        <v>9558549</v>
       </c>
       <c r="C45" s="4">
         <v>0</v>
@@ -1243,10 +1282,10 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="B46" s="2">
-        <v>7677560</v>
+        <v>628502</v>
       </c>
       <c r="C46" s="4">
         <v>0</v>
@@ -1254,21 +1293,21 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="B47" s="2">
-        <v>1240977</v>
+        <v>2875216</v>
       </c>
       <c r="C47" s="4">
-        <v>0</v>
+        <v>80</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>28</v>
+        <v>89</v>
       </c>
       <c r="B48" s="2">
-        <v>6328368</v>
+        <v>55716814</v>
       </c>
       <c r="C48" s="4">
         <v>0</v>
@@ -1276,10 +1315,10 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>87</v>
+        <v>22</v>
       </c>
       <c r="B49" s="2">
-        <v>10080900</v>
+        <v>63706748</v>
       </c>
       <c r="C49" s="4">
         <v>0</v>
@@ -1287,10 +1326,10 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>63</v>
+        <v>99</v>
       </c>
       <c r="B50" s="2">
-        <v>2118780</v>
+        <v>63747925</v>
       </c>
       <c r="C50" s="4">
         <v>0</v>
@@ -1298,10 +1337,10 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="B51" s="2">
-        <v>63730170</v>
+        <v>9542361</v>
       </c>
       <c r="C51" s="4">
         <v>0</v>
@@ -1309,10 +1348,10 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>29</v>
+        <v>103</v>
       </c>
       <c r="B52" s="2">
-        <v>24778112</v>
+        <v>27400066</v>
       </c>
       <c r="C52" s="4">
         <v>0</v>
@@ -1320,10 +1359,10 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="B53" s="2">
-        <v>1862459</v>
+        <v>33132832</v>
       </c>
       <c r="C53" s="4">
         <v>0</v>
@@ -1331,72 +1370,76 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>89</v>
+        <v>24</v>
       </c>
       <c r="B54" s="2">
-        <v>7555072</v>
+        <v>37962038</v>
       </c>
       <c r="C54" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B55" s="2"/>
+      <c r="A55" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B55" s="2">
+        <v>588314</v>
+      </c>
       <c r="C55" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>31</v>
+        <v>81</v>
       </c>
       <c r="B56" s="2">
-        <v>9633608</v>
+        <v>7677560</v>
       </c>
       <c r="C56" s="4">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B57" s="2">
-        <v>2869327</v>
+        <v>1240977</v>
       </c>
       <c r="C57" s="4">
-        <v>500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="3" t="s">
-        <v>33</v>
+      <c r="A58" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="B58" s="2">
-        <v>72329317</v>
+        <v>6328368</v>
       </c>
       <c r="C58" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B59" s="2"/>
+      <c r="A59" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B59" s="2">
+        <v>10080900</v>
+      </c>
       <c r="C59" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="B60" s="2">
-        <v>4138490</v>
+        <v>2118780</v>
       </c>
       <c r="C60" s="4">
         <v>0</v>
@@ -1404,30 +1447,32 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="B61" s="2">
-        <v>337254</v>
+        <v>63730170</v>
       </c>
       <c r="C61" s="4">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B62" s="2"/>
+      <c r="A62" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B62" s="2">
+        <v>6246821</v>
+      </c>
       <c r="C62" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="B63" s="2">
-        <v>7970886</v>
+        <v>24778112</v>
       </c>
       <c r="C63" s="4">
         <v>0</v>
@@ -1435,285 +1480,458 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B64" s="2">
+        <v>1862459</v>
+      </c>
+      <c r="C64" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B65" s="2">
+        <v>7555072</v>
+      </c>
+      <c r="C65" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B66" s="2">
+        <v>4101132</v>
+      </c>
+      <c r="C66" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B67" s="2">
+        <v>8490982</v>
+      </c>
+      <c r="C67" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B68" s="2">
+        <v>9633608</v>
+      </c>
+      <c r="C68" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B69" s="2">
+        <v>2869327</v>
+      </c>
+      <c r="C69" s="4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B70" s="2">
+        <v>72329317</v>
+      </c>
+      <c r="C70" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B71" s="2">
+        <v>6193054</v>
+      </c>
+      <c r="C71" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B72" s="2">
+        <v>4138490</v>
+      </c>
+      <c r="C72" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B73" s="2">
+        <v>337254</v>
+      </c>
+      <c r="C73" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B74" s="2"/>
+      <c r="C74" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B75" s="2">
+        <v>7970886</v>
+      </c>
+      <c r="C75" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B76" s="2">
         <v>32417896</v>
       </c>
-      <c r="C64" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
+      <c r="C76" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B77" s="2">
+        <v>70129836</v>
+      </c>
+      <c r="C77" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B78" s="2">
+        <v>4454684</v>
+      </c>
+      <c r="C78" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B79" s="2">
+        <v>7470522</v>
+      </c>
+      <c r="C79" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B80" s="2">
+        <v>7159263</v>
+      </c>
+      <c r="C80" s="4">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B81" s="2">
+        <v>61841362</v>
+      </c>
+      <c r="C81" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B82" s="2">
+        <v>5805481</v>
+      </c>
+      <c r="C82" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B83" s="2">
+        <v>6301236</v>
+      </c>
+      <c r="C83" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B84" s="2">
+        <v>6414474</v>
+      </c>
+      <c r="C84" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B85" s="2">
+        <v>25296520</v>
+      </c>
+      <c r="C85" s="4">
+        <v>3825</v>
+      </c>
+      <c r="D85" s="2">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B86" s="2">
+        <v>3570888</v>
+      </c>
+      <c r="C86" s="4">
+        <v>1720</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B87" s="2">
+        <v>481854</v>
+      </c>
+      <c r="C87" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B88" s="2">
+        <v>1627540</v>
+      </c>
+      <c r="C88" s="4">
+        <v>3672</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B89" s="2">
+        <v>39768578</v>
+      </c>
+      <c r="C89" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B90" s="2">
+        <v>2412539</v>
+      </c>
+      <c r="C90" s="4">
+        <v>26180</v>
+      </c>
+      <c r="D90" s="2">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B91" s="2">
+        <v>338489</v>
+      </c>
+      <c r="C91" s="4">
+        <v>6105</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B92" s="2">
+        <v>8830089</v>
+      </c>
+      <c r="C92" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B93" s="2">
+        <v>3252577</v>
+      </c>
+      <c r="C93" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B94" s="2">
+        <v>807434</v>
+      </c>
+      <c r="C94" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B95" s="2">
+        <v>7808660</v>
+      </c>
+      <c r="C95" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B96" s="2">
+        <v>4444124</v>
+      </c>
+      <c r="C96" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B97" s="2">
+        <v>5006383</v>
+      </c>
+      <c r="C97" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B98" s="2">
+        <v>1569376</v>
+      </c>
+      <c r="C98" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B99" s="2">
+        <v>56869252</v>
+      </c>
+      <c r="C99" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B100" s="2">
+        <v>5034931</v>
+      </c>
+      <c r="C100" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B101" s="2">
+        <v>1823973</v>
+      </c>
+      <c r="C101" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B102" s="2">
+        <v>1257608</v>
+      </c>
+      <c r="C102" s="4">
+        <v>4550</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B65" s="2">
-        <v>70129836</v>
-      </c>
-      <c r="C65" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B66" s="2">
-        <v>4454684</v>
-      </c>
-      <c r="C66" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B67" s="2">
-        <v>7470522</v>
-      </c>
-      <c r="C67" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B68" s="2">
-        <v>7159263</v>
-      </c>
-      <c r="C68" s="4">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B69" s="2">
-        <v>61841362</v>
-      </c>
-      <c r="C69" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B70" s="2">
-        <v>5805481</v>
-      </c>
-      <c r="C70" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B71" s="2">
-        <v>25296520</v>
-      </c>
-      <c r="C71" s="4">
-        <v>3825</v>
-      </c>
-      <c r="D71" s="2">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B72" s="2">
-        <v>3570888</v>
-      </c>
-      <c r="C72" s="4">
-        <v>1720</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B73" s="2">
-        <v>481854</v>
-      </c>
-      <c r="C73" s="4">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B74" s="2">
-        <v>1627540</v>
-      </c>
-      <c r="C74" s="4">
-        <v>3672</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B75" s="2">
-        <v>39768578</v>
-      </c>
-      <c r="C75" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B76" s="2">
-        <v>2412539</v>
-      </c>
-      <c r="C76" s="4">
-        <v>26180</v>
-      </c>
-      <c r="D76" s="2">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B77" s="2">
-        <v>338489</v>
-      </c>
-      <c r="C77" s="4">
-        <v>6105</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B78" s="2">
-        <v>8830089</v>
-      </c>
-      <c r="C78" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B79" s="2">
-        <v>3252577</v>
-      </c>
-      <c r="C79" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B80" s="2"/>
-      <c r="C80" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" s="3" t="s">
+      <c r="B103" s="2">
+        <v>9757291</v>
+      </c>
+      <c r="C103" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B81" s="2"/>
-      <c r="C81" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B82" s="2">
-        <v>4444124</v>
-      </c>
-      <c r="C82" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B83" s="2">
-        <v>5006383</v>
-      </c>
-      <c r="C83" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B84" s="2">
-        <v>56869252</v>
-      </c>
-      <c r="C84" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B85" s="2">
-        <v>1823973</v>
-      </c>
-      <c r="C85" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B86" s="2">
-        <v>1257608</v>
-      </c>
-      <c r="C86" s="4">
-        <v>4550</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B87" s="2">
-        <v>9757291</v>
-      </c>
-      <c r="C87" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B88" s="2">
+      <c r="B104" s="2">
         <v>67424649</v>
       </c>
-      <c r="C88" s="4">
+      <c r="C104" s="4">
         <v>300</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" s="5"/>
-      <c r="B89" s="6"/>
-      <c r="C89" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/bestPlayers.xlsx
+++ b/bestPlayers.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25109"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Neo Dossier Alexis\Web Projects\BrawlhallaBestCountryPlayersRanksBackend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C46D7077-DFA8-4252-80F4-0A39B013A661}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD06905C-C4F0-4EB6-AFC1-3F0FE3E817EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="116">
   <si>
     <t>Name</t>
   </si>
@@ -237,9 +237,6 @@
     <t>zBlackneight</t>
   </si>
   <si>
-    <t>iSwiits / swts</t>
-  </si>
-  <si>
     <t>Shadra</t>
   </si>
   <si>
@@ -346,6 +343,36 @@
   </si>
   <si>
     <t>SnaKe</t>
+  </si>
+  <si>
+    <t>Alpa</t>
+  </si>
+  <si>
+    <t>Ixilir</t>
+  </si>
+  <si>
+    <t>Mynhir</t>
+  </si>
+  <si>
+    <t>Cookie</t>
+  </si>
+  <si>
+    <t>Gears</t>
+  </si>
+  <si>
+    <t>PtitBiscuit38</t>
+  </si>
+  <si>
+    <t>Shiro_Unmei</t>
+  </si>
+  <si>
+    <t>Saïto</t>
+  </si>
+  <si>
+    <t>Guizmo</t>
+  </si>
+  <si>
+    <t>sweetheart</t>
   </si>
 </sst>
 </file>
@@ -475,10 +502,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D12B8C86-4E93-4EAE-84B7-69A85E340F21}" name="France" displayName="France" ref="A1:D104" totalsRowShown="0">
-  <autoFilter ref="A1:D104" xr:uid="{D12B8C86-4E93-4EAE-84B7-69A85E340F21}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D104">
-    <sortCondition ref="A1:A104"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D12B8C86-4E93-4EAE-84B7-69A85E340F21}" name="France" displayName="France" ref="A1:D113" totalsRowShown="0">
+  <autoFilter ref="A1:D113" xr:uid="{D12B8C86-4E93-4EAE-84B7-69A85E340F21}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D113">
+    <sortCondition ref="A1:A113"/>
   </sortState>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{D71A5C60-C9CB-4021-B21A-999D15C973E7}" name="Name" dataDxfId="2"/>
@@ -753,10 +780,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J104"/>
+  <dimension ref="A1:J113"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -777,10 +804,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G1" s="5"/>
       <c r="H1" s="5"/>
@@ -862,10 +889,10 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>106</v>
       </c>
       <c r="B8" s="2">
-        <v>41316701</v>
+        <v>53965041</v>
       </c>
       <c r="C8" s="4">
         <v>0</v>
@@ -873,10 +900,10 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" s="2">
-        <v>6319950</v>
+        <v>41316701</v>
       </c>
       <c r="C9" s="4">
         <v>0</v>
@@ -884,10 +911,10 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>92</v>
+        <v>9</v>
       </c>
       <c r="B10" s="2">
-        <v>29733011</v>
+        <v>6319950</v>
       </c>
       <c r="C10" s="4">
         <v>0</v>
@@ -895,10 +922,10 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="B11" s="2">
-        <v>2748864</v>
+        <v>29733011</v>
       </c>
       <c r="C11" s="4">
         <v>0</v>
@@ -906,10 +933,10 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B12" s="2">
-        <v>25254254</v>
+        <v>2748864</v>
       </c>
       <c r="C12" s="4">
         <v>0</v>
@@ -917,10 +944,10 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B13" s="2">
-        <v>6406021</v>
+        <v>25254254</v>
       </c>
       <c r="C13" s="4">
         <v>0</v>
@@ -928,10 +955,10 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>10</v>
+        <v>101</v>
       </c>
       <c r="B14" s="2">
-        <v>158608</v>
+        <v>6406021</v>
       </c>
       <c r="C14" s="4">
         <v>0</v>
@@ -939,10 +966,10 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>93</v>
+        <v>10</v>
       </c>
       <c r="B15" s="2">
-        <v>7175314</v>
+        <v>158608</v>
       </c>
       <c r="C15" s="4">
         <v>0</v>
@@ -950,10 +977,10 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B16" s="2">
-        <v>4455324</v>
+        <v>7175314</v>
       </c>
       <c r="C16" s="4">
         <v>0</v>
@@ -961,10 +988,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>11</v>
+        <v>94</v>
       </c>
       <c r="B17" s="2">
-        <v>9238331</v>
+        <v>4455324</v>
       </c>
       <c r="C17" s="4">
         <v>0</v>
@@ -972,10 +999,10 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="B18" s="2">
-        <v>4608774</v>
+        <v>9238331</v>
       </c>
       <c r="C18" s="4">
         <v>0</v>
@@ -983,10 +1010,10 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>91</v>
+        <v>57</v>
       </c>
       <c r="B19" s="2">
-        <v>23477768</v>
+        <v>4608774</v>
       </c>
       <c r="C19" s="4">
         <v>0</v>
@@ -994,10 +1021,10 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="B20" s="2">
-        <v>12939784</v>
+        <v>23477768</v>
       </c>
       <c r="C20" s="4">
         <v>0</v>
@@ -1005,10 +1032,10 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B21" s="2">
-        <v>5424846</v>
+        <v>12939784</v>
       </c>
       <c r="C21" s="4">
         <v>0</v>
@@ -1016,10 +1043,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>86</v>
+        <v>47</v>
       </c>
       <c r="B22" s="2">
-        <v>9403791</v>
+        <v>5424846</v>
       </c>
       <c r="C22" s="4">
         <v>0</v>
@@ -1027,65 +1054,65 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>51</v>
+        <v>109</v>
       </c>
       <c r="B23" s="2">
-        <v>1367587</v>
+        <v>1467673</v>
       </c>
       <c r="C23" s="4">
-        <v>3377</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="B24" s="2">
-        <v>48772510</v>
+        <v>9403791</v>
       </c>
       <c r="C24" s="4">
-        <v>4150</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B25" s="2">
-        <v>1279448</v>
+        <v>1367587</v>
       </c>
       <c r="C25" s="4">
-        <v>70</v>
+        <v>3377</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="B26" s="2">
-        <v>19800966</v>
+        <v>48772510</v>
       </c>
       <c r="C26" s="4">
-        <v>0</v>
+        <v>4150</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="B27" s="2">
-        <v>4563514</v>
+        <v>1279448</v>
       </c>
       <c r="C27" s="4">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>14</v>
+        <v>83</v>
       </c>
       <c r="B28" s="2">
-        <v>4708483</v>
+        <v>19800966</v>
       </c>
       <c r="C28" s="4">
         <v>0</v>
@@ -1093,24 +1120,21 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B29" s="2">
-        <v>3540146</v>
+        <v>4563514</v>
       </c>
       <c r="C29" s="4">
         <v>0</v>
-      </c>
-      <c r="D29" s="2">
-        <v>360</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>79</v>
+        <v>14</v>
       </c>
       <c r="B30" s="2">
-        <v>25116293</v>
+        <v>4708483</v>
       </c>
       <c r="C30" s="4">
         <v>0</v>
@@ -1118,218 +1142,225 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>105</v>
+        <v>15</v>
       </c>
       <c r="B31" s="2">
-        <v>10439301</v>
+        <v>3540146</v>
       </c>
       <c r="C31" s="4">
         <v>0</v>
       </c>
       <c r="D31" s="2">
-        <v>60</v>
+        <v>360</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B32" s="2">
+        <v>25116293</v>
+      </c>
+      <c r="C32" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B33" s="2">
+        <v>10439301</v>
+      </c>
+      <c r="C33" s="4">
+        <v>0</v>
+      </c>
+      <c r="D33" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B34" s="2">
+        <v>23612751</v>
+      </c>
+      <c r="C34" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B35" s="2">
+        <v>2963946</v>
+      </c>
+      <c r="C35" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B36" s="2">
         <v>8615459</v>
       </c>
-      <c r="C32" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+      <c r="C36" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B37" s="2">
         <v>27433024</v>
       </c>
-      <c r="C33" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
+      <c r="C37" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B34" s="2">
+      <c r="B38" s="2">
         <v>9099776</v>
       </c>
-      <c r="C34" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
+      <c r="C38" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B35" s="2">
+      <c r="B39" s="2">
         <v>23595564</v>
       </c>
-      <c r="C35" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
+      <c r="C39" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B36" s="2">
+      <c r="B40" s="2">
         <v>1819594</v>
       </c>
-      <c r="C36" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B37" s="2"/>
-      <c r="C37" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
+      <c r="C40" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B41" s="2">
+        <v>5448743</v>
+      </c>
+      <c r="C41" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B42" s="2">
+        <v>2124553</v>
+      </c>
+      <c r="C42" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B43" s="2">
+        <v>1105093</v>
+      </c>
+      <c r="C43" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B44" s="2">
+        <v>30830337</v>
+      </c>
+      <c r="C44" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B45" s="2">
+        <v>45168975</v>
+      </c>
+      <c r="C45" s="4">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B46" s="2">
+        <v>3184429</v>
+      </c>
+      <c r="C46" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B47" s="2">
+        <v>5270270</v>
+      </c>
+      <c r="C47" s="4">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B38" s="2">
-        <v>1105093</v>
-      </c>
-      <c r="C38" s="4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B39" s="2">
-        <v>30830337</v>
-      </c>
-      <c r="C39" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B40" s="2">
-        <v>45168975</v>
-      </c>
-      <c r="C40" s="4">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B41" s="2">
-        <v>3184429</v>
-      </c>
-      <c r="C41" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B42" s="2">
-        <v>5270270</v>
-      </c>
-      <c r="C42" s="4">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B43" s="2"/>
-      <c r="C43" s="4">
+      <c r="B48" s="2">
+        <v>446742</v>
+      </c>
+      <c r="C48" s="4">
         <v>80</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B44" s="2">
-        <v>200122</v>
-      </c>
-      <c r="C44" s="4">
-        <v>25220</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B45" s="2">
-        <v>9558549</v>
-      </c>
-      <c r="C45" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B46" s="2">
-        <v>628502</v>
-      </c>
-      <c r="C46" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B47" s="2">
-        <v>2875216</v>
-      </c>
-      <c r="C47" s="4">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B48" s="2">
-        <v>55716814</v>
-      </c>
-      <c r="C48" s="4">
-        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="B49" s="2">
-        <v>63706748</v>
+        <v>200122</v>
       </c>
       <c r="C49" s="4">
-        <v>0</v>
+        <v>25220</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>99</v>
+        <v>55</v>
       </c>
       <c r="B50" s="2">
-        <v>63747925</v>
+        <v>9558549</v>
       </c>
       <c r="C50" s="4">
         <v>0</v>
@@ -1337,10 +1368,10 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="B51" s="2">
-        <v>9542361</v>
+        <v>628502</v>
       </c>
       <c r="C51" s="4">
         <v>0</v>
@@ -1348,21 +1379,21 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>103</v>
+        <v>49</v>
       </c>
       <c r="B52" s="2">
-        <v>27400066</v>
+        <v>2875216</v>
       </c>
       <c r="C52" s="4">
-        <v>0</v>
+        <v>80</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>23</v>
+        <v>88</v>
       </c>
       <c r="B53" s="2">
-        <v>33132832</v>
+        <v>55716814</v>
       </c>
       <c r="C53" s="4">
         <v>0</v>
@@ -1370,10 +1401,10 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B54" s="2">
-        <v>37962038</v>
+        <v>63706748</v>
       </c>
       <c r="C54" s="4">
         <v>0</v>
@@ -1381,10 +1412,10 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>25</v>
+        <v>98</v>
       </c>
       <c r="B55" s="2">
-        <v>588314</v>
+        <v>63747925</v>
       </c>
       <c r="C55" s="4">
         <v>0</v>
@@ -1392,10 +1423,10 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="B56" s="2">
-        <v>7677560</v>
+        <v>9542361</v>
       </c>
       <c r="C56" s="4">
         <v>0</v>
@@ -1403,10 +1434,10 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>26</v>
+        <v>102</v>
       </c>
       <c r="B57" s="2">
-        <v>1240977</v>
+        <v>27400066</v>
       </c>
       <c r="C57" s="4">
         <v>0</v>
@@ -1414,10 +1445,10 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B58" s="2">
-        <v>6328368</v>
+        <v>33132832</v>
       </c>
       <c r="C58" s="4">
         <v>0</v>
@@ -1425,10 +1456,10 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>80</v>
+        <v>108</v>
       </c>
       <c r="B59" s="2">
-        <v>10080900</v>
+        <v>10499300</v>
       </c>
       <c r="C59" s="4">
         <v>0</v>
@@ -1436,10 +1467,10 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="B60" s="2">
-        <v>2118780</v>
+        <v>37962038</v>
       </c>
       <c r="C60" s="4">
         <v>0</v>
@@ -1447,10 +1478,10 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>25</v>
       </c>
       <c r="B61" s="2">
-        <v>63730170</v>
+        <v>588314</v>
       </c>
       <c r="C61" s="4">
         <v>0</v>
@@ -1458,10 +1489,10 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="B62" s="2">
-        <v>6246821</v>
+        <v>7677560</v>
       </c>
       <c r="C62" s="4">
         <v>0</v>
@@ -1469,10 +1500,10 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B63" s="2">
-        <v>24778112</v>
+        <v>1240977</v>
       </c>
       <c r="C63" s="4">
         <v>0</v>
@@ -1480,10 +1511,10 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="B64" s="2">
-        <v>1862459</v>
+        <v>6328368</v>
       </c>
       <c r="C64" s="4">
         <v>0</v>
@@ -1491,10 +1522,10 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B65" s="2">
-        <v>7555072</v>
+        <v>10080900</v>
       </c>
       <c r="C65" s="4">
         <v>0</v>
@@ -1502,10 +1533,10 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="B66" s="2">
-        <v>4101132</v>
+        <v>2118780</v>
       </c>
       <c r="C66" s="4">
         <v>0</v>
@@ -1513,10 +1544,10 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="B67" s="2">
-        <v>8490982</v>
+        <v>63730170</v>
       </c>
       <c r="C67" s="4">
         <v>0</v>
@@ -1524,32 +1555,32 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>30</v>
+        <v>95</v>
       </c>
       <c r="B68" s="2">
-        <v>9633608</v>
+        <v>6246821</v>
       </c>
       <c r="C68" s="4">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B69" s="2">
-        <v>2869327</v>
+        <v>24778112</v>
       </c>
       <c r="C69" s="4">
-        <v>500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="B70" s="2">
-        <v>72329317</v>
+        <v>1862459</v>
       </c>
       <c r="C70" s="4">
         <v>0</v>
@@ -1557,10 +1588,10 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>33</v>
+        <v>81</v>
       </c>
       <c r="B71" s="2">
-        <v>6193054</v>
+        <v>7555072</v>
       </c>
       <c r="C71" s="4">
         <v>0</v>
@@ -1568,10 +1599,10 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>61</v>
+        <v>111</v>
       </c>
       <c r="B72" s="2">
-        <v>4138490</v>
+        <v>56752703</v>
       </c>
       <c r="C72" s="4">
         <v>0</v>
@@ -1579,52 +1610,54 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="B73" s="2">
-        <v>337254</v>
+        <v>4101132</v>
       </c>
       <c r="C73" s="4">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B74" s="2"/>
+      <c r="A74" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B74" s="2">
+        <v>8490982</v>
+      </c>
       <c r="C74" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="B75" s="2">
-        <v>7970886</v>
+        <v>9633608</v>
       </c>
       <c r="C75" s="4">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>98</v>
+        <v>31</v>
       </c>
       <c r="B76" s="2">
-        <v>32417896</v>
+        <v>2869327</v>
       </c>
       <c r="C76" s="4">
-        <v>0</v>
+        <v>500</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>85</v>
+        <v>32</v>
       </c>
       <c r="B77" s="2">
-        <v>70129836</v>
+        <v>72329317</v>
       </c>
       <c r="C77" s="4">
         <v>0</v>
@@ -1632,10 +1665,10 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B78" s="2">
-        <v>4454684</v>
+        <v>6193054</v>
       </c>
       <c r="C78" s="4">
         <v>0</v>
@@ -1643,10 +1676,10 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="B79" s="2">
-        <v>7470522</v>
+        <v>4138490</v>
       </c>
       <c r="C79" s="4">
         <v>0</v>
@@ -1654,32 +1687,30 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="B80" s="2">
-        <v>7159263</v>
+        <v>337254</v>
       </c>
       <c r="C80" s="4">
-        <v>150</v>
+        <v>100</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B81" s="2">
-        <v>61841362</v>
-      </c>
+      <c r="A81" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B81" s="2"/>
       <c r="C81" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>38</v>
+        <v>113</v>
       </c>
       <c r="B82" s="2">
-        <v>5805481</v>
+        <v>4712788</v>
       </c>
       <c r="C82" s="4">
         <v>0</v>
@@ -1687,10 +1718,10 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>106</v>
+        <v>56</v>
       </c>
       <c r="B83" s="2">
-        <v>6301236</v>
+        <v>7970886</v>
       </c>
       <c r="C83" s="4">
         <v>0</v>
@@ -1698,10 +1729,10 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="B84" s="2">
-        <v>6414474</v>
+        <v>32417896</v>
       </c>
       <c r="C84" s="4">
         <v>0</v>
@@ -1709,57 +1740,54 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="B85" s="2">
-        <v>25296520</v>
+        <v>70129836</v>
       </c>
       <c r="C85" s="4">
-        <v>3825</v>
-      </c>
-      <c r="D85" s="2">
-        <v>390</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="B86" s="2">
-        <v>3570888</v>
+        <v>4454684</v>
       </c>
       <c r="C86" s="4">
-        <v>1720</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="B87" s="2">
-        <v>481854</v>
+        <v>7470522</v>
       </c>
       <c r="C87" s="4">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="B88" s="2">
-        <v>1627540</v>
+        <v>7159263</v>
       </c>
       <c r="C88" s="4">
-        <v>3672</v>
+        <v>150</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>39</v>
+        <v>112</v>
       </c>
       <c r="B89" s="2">
-        <v>39768578</v>
+        <v>28801500</v>
       </c>
       <c r="C89" s="4">
         <v>0</v>
@@ -1767,35 +1795,32 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B90" s="2">
-        <v>2412539</v>
+        <v>61841362</v>
       </c>
       <c r="C90" s="4">
-        <v>26180</v>
-      </c>
-      <c r="D90" s="2">
-        <v>360</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B91" s="2">
-        <v>338489</v>
+        <v>5805481</v>
       </c>
       <c r="C91" s="4">
-        <v>6105</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>42</v>
+        <v>105</v>
       </c>
       <c r="B92" s="2">
-        <v>8830089</v>
+        <v>6301236</v>
       </c>
       <c r="C92" s="4">
         <v>0</v>
@@ -1803,10 +1828,10 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>43</v>
+        <v>103</v>
       </c>
       <c r="B93" s="2">
-        <v>3252577</v>
+        <v>6414474</v>
       </c>
       <c r="C93" s="4">
         <v>0</v>
@@ -1814,122 +1839,227 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="B94" s="2">
-        <v>807434</v>
+        <v>25296520</v>
       </c>
       <c r="C94" s="4">
-        <v>0</v>
+        <v>3825</v>
+      </c>
+      <c r="D94" s="2">
+        <v>390</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="B95" s="2">
-        <v>7808660</v>
+        <v>3570888</v>
       </c>
       <c r="C95" s="4">
-        <v>0</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B96" s="2">
+        <v>481854</v>
+      </c>
+      <c r="C96" s="4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B97" s="2">
+        <v>1627540</v>
+      </c>
+      <c r="C97" s="4">
+        <v>3672</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B98" s="2">
+        <v>39768578</v>
+      </c>
+      <c r="C98" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B99" s="2">
+        <v>2412539</v>
+      </c>
+      <c r="C99" s="4">
+        <v>26180</v>
+      </c>
+      <c r="D99" s="2">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B100" s="2">
+        <v>338489</v>
+      </c>
+      <c r="C100" s="4">
+        <v>6105</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B101" s="2">
+        <v>8830089</v>
+      </c>
+      <c r="C101" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B102" s="2">
+        <v>3252577</v>
+      </c>
+      <c r="C102" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B103" s="2">
+        <v>807434</v>
+      </c>
+      <c r="C103" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B104" s="2">
+        <v>7808660</v>
+      </c>
+      <c r="C104" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B96" s="2">
+      <c r="B105" s="2">
         <v>4444124</v>
       </c>
-      <c r="C96" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" s="1" t="s">
+      <c r="C105" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B97" s="2">
+      <c r="B106" s="2">
         <v>5006383</v>
       </c>
-      <c r="C97" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B98" s="2">
+      <c r="C106" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B107" s="2">
         <v>1569376</v>
       </c>
-      <c r="C98" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" s="1" t="s">
+      <c r="C107" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B99" s="2">
+      <c r="B108" s="2">
         <v>56869252</v>
       </c>
-      <c r="C99" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B100" s="2">
+      <c r="C108" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B109" s="2">
         <v>5034931</v>
       </c>
-      <c r="C100" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B101" s="2">
+      <c r="C109" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B110" s="2">
         <v>1823973</v>
       </c>
-      <c r="C101" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A102" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B102" s="2">
+      <c r="C110" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B111" s="2">
         <v>1257608</v>
       </c>
-      <c r="C102" s="4">
+      <c r="C111" s="4">
         <v>4550</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A103" s="1" t="s">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B103" s="2">
+      <c r="B112" s="2">
         <v>9757291</v>
       </c>
-      <c r="C103" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104" s="1" t="s">
+      <c r="C112" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B104" s="2">
+      <c r="B113" s="2">
         <v>67424649</v>
       </c>
-      <c r="C104" s="4">
+      <c r="C113" s="4">
         <v>300</v>
       </c>
     </row>

--- a/bestPlayers.xlsx
+++ b/bestPlayers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Neo Dossier Alexis\Web Projects\BrawlhallaBestCountryPlayersRanksBackend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD06905C-C4F0-4EB6-AFC1-3F0FE3E817EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18EFAE8E-A7AA-4B03-9CD5-B9A7C9EBAAC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="117">
   <si>
     <t>Name</t>
   </si>
@@ -373,6 +373,9 @@
   </si>
   <si>
     <t>sweetheart</t>
+  </si>
+  <si>
+    <t>Aspidani_</t>
   </si>
 </sst>
 </file>
@@ -502,10 +505,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D12B8C86-4E93-4EAE-84B7-69A85E340F21}" name="France" displayName="France" ref="A1:D113" totalsRowShown="0">
-  <autoFilter ref="A1:D113" xr:uid="{D12B8C86-4E93-4EAE-84B7-69A85E340F21}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D113">
-    <sortCondition ref="A1:A113"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D12B8C86-4E93-4EAE-84B7-69A85E340F21}" name="France" displayName="France" ref="A1:D114" totalsRowShown="0">
+  <autoFilter ref="A1:D114" xr:uid="{D12B8C86-4E93-4EAE-84B7-69A85E340F21}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D114">
+    <sortCondition ref="A1:A114"/>
   </sortState>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{D71A5C60-C9CB-4021-B21A-999D15C973E7}" name="Name" dataDxfId="2"/>
@@ -780,10 +783,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J113"/>
+  <dimension ref="A1:J114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+    <sheetView tabSelected="1" topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E103" sqref="E103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -922,10 +925,10 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>91</v>
+        <v>116</v>
       </c>
       <c r="B11" s="2">
-        <v>29733011</v>
+        <v>43760555</v>
       </c>
       <c r="C11" s="4">
         <v>0</v>
@@ -933,10 +936,10 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="B12" s="2">
-        <v>2748864</v>
+        <v>29733011</v>
       </c>
       <c r="C12" s="4">
         <v>0</v>
@@ -944,10 +947,10 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B13" s="2">
-        <v>25254254</v>
+        <v>2748864</v>
       </c>
       <c r="C13" s="4">
         <v>0</v>
@@ -955,10 +958,10 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B14" s="2">
-        <v>6406021</v>
+        <v>25254254</v>
       </c>
       <c r="C14" s="4">
         <v>0</v>
@@ -966,10 +969,10 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>10</v>
+        <v>101</v>
       </c>
       <c r="B15" s="2">
-        <v>158608</v>
+        <v>6406021</v>
       </c>
       <c r="C15" s="4">
         <v>0</v>
@@ -977,10 +980,10 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>92</v>
+        <v>10</v>
       </c>
       <c r="B16" s="2">
-        <v>7175314</v>
+        <v>158608</v>
       </c>
       <c r="C16" s="4">
         <v>0</v>
@@ -988,10 +991,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B17" s="2">
-        <v>4455324</v>
+        <v>7175314</v>
       </c>
       <c r="C17" s="4">
         <v>0</v>
@@ -999,10 +1002,10 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>11</v>
+        <v>94</v>
       </c>
       <c r="B18" s="2">
-        <v>9238331</v>
+        <v>4455324</v>
       </c>
       <c r="C18" s="4">
         <v>0</v>
@@ -1010,10 +1013,10 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="B19" s="2">
-        <v>4608774</v>
+        <v>9238331</v>
       </c>
       <c r="C19" s="4">
         <v>0</v>
@@ -1021,10 +1024,10 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>90</v>
+        <v>57</v>
       </c>
       <c r="B20" s="2">
-        <v>23477768</v>
+        <v>4608774</v>
       </c>
       <c r="C20" s="4">
         <v>0</v>
@@ -1032,10 +1035,10 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="B21" s="2">
-        <v>12939784</v>
+        <v>23477768</v>
       </c>
       <c r="C21" s="4">
         <v>0</v>
@@ -1043,10 +1046,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B22" s="2">
-        <v>5424846</v>
+        <v>12939784</v>
       </c>
       <c r="C22" s="4">
         <v>0</v>
@@ -1054,10 +1057,10 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>109</v>
+        <v>47</v>
       </c>
       <c r="B23" s="2">
-        <v>1467673</v>
+        <v>5424846</v>
       </c>
       <c r="C23" s="4">
         <v>0</v>
@@ -1065,10 +1068,10 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>85</v>
+        <v>109</v>
       </c>
       <c r="B24" s="2">
-        <v>9403791</v>
+        <v>1467673</v>
       </c>
       <c r="C24" s="4">
         <v>0</v>
@@ -1076,54 +1079,54 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>51</v>
+        <v>85</v>
       </c>
       <c r="B25" s="2">
-        <v>1367587</v>
+        <v>9403791</v>
       </c>
       <c r="C25" s="4">
-        <v>3377</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="B26" s="2">
-        <v>48772510</v>
+        <v>1367587</v>
       </c>
       <c r="C26" s="4">
-        <v>4150</v>
+        <v>3377</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="B27" s="2">
-        <v>1279448</v>
+        <v>48772510</v>
       </c>
       <c r="C27" s="4">
-        <v>70</v>
+        <v>4150</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>83</v>
+        <v>48</v>
       </c>
       <c r="B28" s="2">
-        <v>19800966</v>
+        <v>1279448</v>
       </c>
       <c r="C28" s="4">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>13</v>
+        <v>83</v>
       </c>
       <c r="B29" s="2">
-        <v>4563514</v>
+        <v>19800966</v>
       </c>
       <c r="C29" s="4">
         <v>0</v>
@@ -1131,10 +1134,10 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B30" s="2">
-        <v>4708483</v>
+        <v>4563514</v>
       </c>
       <c r="C30" s="4">
         <v>0</v>
@@ -1142,60 +1145,60 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B31" s="2">
-        <v>3540146</v>
+        <v>4708483</v>
       </c>
       <c r="C31" s="4">
         <v>0</v>
-      </c>
-      <c r="D31" s="2">
-        <v>360</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>78</v>
+        <v>15</v>
       </c>
       <c r="B32" s="2">
-        <v>25116293</v>
+        <v>3540146</v>
       </c>
       <c r="C32" s="4">
         <v>0</v>
+      </c>
+      <c r="D32" s="2">
+        <v>360</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>104</v>
+        <v>78</v>
       </c>
       <c r="B33" s="2">
-        <v>10439301</v>
+        <v>25116293</v>
       </c>
       <c r="C33" s="4">
         <v>0</v>
-      </c>
-      <c r="D33" s="2">
-        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B34" s="2">
-        <v>23612751</v>
+        <v>10439301</v>
       </c>
       <c r="C34" s="4">
         <v>0</v>
+      </c>
+      <c r="D34" s="2">
+        <v>60</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B35" s="2">
-        <v>2963946</v>
+        <v>23612751</v>
       </c>
       <c r="C35" s="4">
         <v>0</v>
@@ -1203,10 +1206,10 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>65</v>
+        <v>114</v>
       </c>
       <c r="B36" s="2">
-        <v>8615459</v>
+        <v>2963946</v>
       </c>
       <c r="C36" s="4">
         <v>0</v>
@@ -1214,10 +1217,10 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B37" s="2">
-        <v>27433024</v>
+        <v>8615459</v>
       </c>
       <c r="C37" s="4">
         <v>0</v>
@@ -1225,10 +1228,10 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="B38" s="2">
-        <v>9099776</v>
+        <v>27433024</v>
       </c>
       <c r="C38" s="4">
         <v>0</v>
@@ -1236,10 +1239,10 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="B39" s="2">
-        <v>23595564</v>
+        <v>9099776</v>
       </c>
       <c r="C39" s="4">
         <v>0</v>
@@ -1247,10 +1250,10 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="B40" s="2">
-        <v>1819594</v>
+        <v>23595564</v>
       </c>
       <c r="C40" s="4">
         <v>0</v>
@@ -1258,10 +1261,10 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>115</v>
+        <v>17</v>
       </c>
       <c r="B41" s="2">
-        <v>5448743</v>
+        <v>1819594</v>
       </c>
       <c r="C41" s="4">
         <v>0</v>
@@ -1367,12 +1370,10 @@
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
+      <c r="A51" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B51" s="2">
-        <v>628502</v>
-      </c>
+      <c r="B51" s="2"/>
       <c r="C51" s="4">
         <v>0</v>
       </c>
@@ -1911,32 +1912,32 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="B100" s="2">
-        <v>338489</v>
+        <v>5448743</v>
       </c>
       <c r="C100" s="4">
-        <v>6105</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B101" s="2">
-        <v>8830089</v>
+        <v>338489</v>
       </c>
       <c r="C101" s="4">
-        <v>0</v>
+        <v>6105</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B102" s="2">
-        <v>3252577</v>
+        <v>8830089</v>
       </c>
       <c r="C102" s="4">
         <v>0</v>
@@ -1944,10 +1945,10 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>99</v>
+        <v>43</v>
       </c>
       <c r="B103" s="2">
-        <v>807434</v>
+        <v>3252577</v>
       </c>
       <c r="C103" s="4">
         <v>0</v>
@@ -1955,10 +1956,10 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="B104" s="2">
-        <v>7808660</v>
+        <v>807434</v>
       </c>
       <c r="C104" s="4">
         <v>0</v>
@@ -1966,10 +1967,10 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>44</v>
+        <v>87</v>
       </c>
       <c r="B105" s="2">
-        <v>4444124</v>
+        <v>7808660</v>
       </c>
       <c r="C105" s="4">
         <v>0</v>
@@ -1977,10 +1978,10 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B106" s="2">
-        <v>5006383</v>
+        <v>4444124</v>
       </c>
       <c r="C106" s="4">
         <v>0</v>
@@ -1988,10 +1989,10 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>93</v>
+        <v>45</v>
       </c>
       <c r="B107" s="2">
-        <v>1569376</v>
+        <v>5006383</v>
       </c>
       <c r="C107" s="4">
         <v>0</v>
@@ -1999,10 +2000,10 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="B108" s="2">
-        <v>56869252</v>
+        <v>1569376</v>
       </c>
       <c r="C108" s="4">
         <v>0</v>
@@ -2010,10 +2011,10 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>89</v>
+        <v>62</v>
       </c>
       <c r="B109" s="2">
-        <v>5034931</v>
+        <v>56869252</v>
       </c>
       <c r="C109" s="4">
         <v>0</v>
@@ -2021,10 +2022,10 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="B110" s="2">
-        <v>1823973</v>
+        <v>5034931</v>
       </c>
       <c r="C110" s="4">
         <v>0</v>
@@ -2032,34 +2033,45 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="B111" s="2">
-        <v>1257608</v>
+        <v>1823973</v>
       </c>
       <c r="C111" s="4">
-        <v>4550</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B112" s="2">
-        <v>9757291</v>
+        <v>1257608</v>
       </c>
       <c r="C112" s="4">
-        <v>0</v>
+        <v>4550</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B113" s="2">
+        <v>9757291</v>
+      </c>
+      <c r="C113" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B113" s="2">
+      <c r="B114" s="2">
         <v>67424649</v>
       </c>
-      <c r="C113" s="4">
+      <c r="C114" s="4">
         <v>300</v>
       </c>
     </row>

--- a/bestPlayers.xlsx
+++ b/bestPlayers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25109"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25121"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Neo Dossier Alexis\Web Projects\BrawlhallaBestCountryPlayersRanksBackend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18EFAE8E-A7AA-4B03-9CD5-B9A7C9EBAAC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E90F7D3B-8F28-4A9D-80EA-5D76463ECAE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="119">
   <si>
     <t>Name</t>
   </si>
@@ -376,6 +376,12 @@
   </si>
   <si>
     <t>Aspidani_</t>
+  </si>
+  <si>
+    <t>Zeltol</t>
+  </si>
+  <si>
+    <t>Veyaax</t>
   </si>
 </sst>
 </file>
@@ -505,8 +511,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D12B8C86-4E93-4EAE-84B7-69A85E340F21}" name="France" displayName="France" ref="A1:D114" totalsRowShown="0">
-  <autoFilter ref="A1:D114" xr:uid="{D12B8C86-4E93-4EAE-84B7-69A85E340F21}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D12B8C86-4E93-4EAE-84B7-69A85E340F21}" name="France" displayName="France" ref="A1:D116" totalsRowShown="0">
+  <autoFilter ref="A1:D116" xr:uid="{D12B8C86-4E93-4EAE-84B7-69A85E340F21}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D114">
     <sortCondition ref="A1:A114"/>
   </sortState>
@@ -783,10 +789,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J114"/>
+  <dimension ref="A1:J116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E103" sqref="E103"/>
+    <sheetView tabSelected="1" topLeftCell="A91" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E114" sqref="E114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2075,6 +2081,28 @@
         <v>300</v>
       </c>
     </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B115" s="2">
+        <v>9279884</v>
+      </c>
+      <c r="C115" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B116" s="2">
+        <v>17545915</v>
+      </c>
+      <c r="C116" s="4">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/bestPlayers.xlsx
+++ b/bestPlayers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25121"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Neo Dossier Alexis\Web Projects\BrawlhallaBestCountryPlayersRanksBackend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E90F7D3B-8F28-4A9D-80EA-5D76463ECAE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{508A6245-8D93-4E46-9132-36462899CA34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -513,8 +513,8 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D12B8C86-4E93-4EAE-84B7-69A85E340F21}" name="France" displayName="France" ref="A1:D116" totalsRowShown="0">
   <autoFilter ref="A1:D116" xr:uid="{D12B8C86-4E93-4EAE-84B7-69A85E340F21}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D114">
-    <sortCondition ref="A1:A114"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D116">
+    <sortCondition ref="A1:A116"/>
   </sortState>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{D71A5C60-C9CB-4021-B21A-999D15C973E7}" name="Name" dataDxfId="2"/>
@@ -791,7 +791,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A88" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E114" sqref="E114"/>
     </sheetView>
   </sheetViews>
@@ -1973,10 +1973,10 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>87</v>
+        <v>118</v>
       </c>
       <c r="B105" s="2">
-        <v>7808660</v>
+        <v>17545915</v>
       </c>
       <c r="C105" s="4">
         <v>0</v>
@@ -1984,10 +1984,10 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>44</v>
+        <v>87</v>
       </c>
       <c r="B106" s="2">
-        <v>4444124</v>
+        <v>7808660</v>
       </c>
       <c r="C106" s="4">
         <v>0</v>
@@ -1995,10 +1995,10 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B107" s="2">
-        <v>5006383</v>
+        <v>4444124</v>
       </c>
       <c r="C107" s="4">
         <v>0</v>
@@ -2006,10 +2006,10 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>93</v>
+        <v>45</v>
       </c>
       <c r="B108" s="2">
-        <v>1569376</v>
+        <v>5006383</v>
       </c>
       <c r="C108" s="4">
         <v>0</v>
@@ -2017,10 +2017,10 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="B109" s="2">
-        <v>56869252</v>
+        <v>1569376</v>
       </c>
       <c r="C109" s="4">
         <v>0</v>
@@ -2028,10 +2028,10 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>89</v>
+        <v>62</v>
       </c>
       <c r="B110" s="2">
-        <v>5034931</v>
+        <v>56869252</v>
       </c>
       <c r="C110" s="4">
         <v>0</v>
@@ -2039,10 +2039,10 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="B111" s="2">
-        <v>1823973</v>
+        <v>5034931</v>
       </c>
       <c r="C111" s="4">
         <v>0</v>
@@ -2050,35 +2050,35 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="B112" s="2">
-        <v>1257608</v>
+        <v>1823973</v>
       </c>
       <c r="C112" s="4">
-        <v>4550</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B113" s="2">
-        <v>9757291</v>
+        <v>1257608</v>
       </c>
       <c r="C113" s="4">
-        <v>0</v>
+        <v>4550</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="B114" s="2">
-        <v>67424649</v>
+        <v>9757291</v>
       </c>
       <c r="C114" s="4">
-        <v>300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
@@ -2094,13 +2094,13 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>118</v>
+        <v>46</v>
       </c>
       <c r="B116" s="2">
-        <v>17545915</v>
+        <v>67424649</v>
       </c>
       <c r="C116" s="4">
-        <v>0</v>
+        <v>300</v>
       </c>
     </row>
   </sheetData>
